--- a/Documentation/gantt.xlsx
+++ b/Documentation/gantt.xlsx
@@ -9,13 +9,15 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
+    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
+    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="70">
   <si>
     <t>Exploration API JSON</t>
   </si>
@@ -150,6 +152,104 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>Valentin</t>
+  </si>
+  <si>
+    <t>Adélaïde</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Adélaïde, Valentin</t>
+  </si>
+  <si>
+    <t>Manon</t>
+  </si>
+  <si>
+    <t>Adélaïde, Manon, Simon, Valentin</t>
+  </si>
+  <si>
+    <t>Adélaïde, Simon, Valentin</t>
+  </si>
+  <si>
+    <t>Adélaïde, Simon, Valentin, E. Fritsch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Adélaïde, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manon, Simon, Valentin</t>
+    </r>
+  </si>
+  <si>
+    <t>Charte Graphique</t>
+  </si>
+  <si>
+    <r>
+      <t>Va</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lentin</t>
+    </r>
+  </si>
+  <si>
+    <t>Adélaïde, Manon,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Simon, Valentin</t>
+  </si>
+  <si>
+    <t>Jalon n°1</t>
+  </si>
+  <si>
+    <t>Jalon n°2</t>
+  </si>
+  <si>
+    <t>COPIL</t>
+  </si>
+  <si>
+    <t>Jalon n°3</t>
+  </si>
+  <si>
+    <t>Jalon n°4</t>
+  </si>
+  <si>
+    <t>Jalon n°5</t>
+  </si>
+  <si>
+    <t>Soutenance</t>
+  </si>
+  <si>
+    <t>Tâches effectuées avant le COPIL</t>
+  </si>
+  <si>
+    <t>Travail prévu avant le COPIL mais non réalisé</t>
+  </si>
+  <si>
+    <t>Travail prévu avant le COPIL et réalisé</t>
+  </si>
+  <si>
+    <t>Travail non prévu avant le COPIL et réalisé</t>
+  </si>
+  <si>
+    <t>Adélaïde, Manon, Simon,</t>
   </si>
 </sst>
 </file>
@@ -159,7 +259,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,15 +348,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="3" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.79998168889431442"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,12 +407,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +424,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,8 +491,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -348,9 +501,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,21 +523,43 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFECF2F8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -686,7 +860,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="I17" sqref="I17:J17"/>
     </sheetView>
   </sheetViews>
@@ -696,96 +870,94 @@
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" customWidth="1"/>
     <col min="4" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="8" width="8.42578125" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.42578125" customWidth="1"/>
+    <col min="8" max="15" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="46" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B1" s="21">
+      <c r="B1" s="20">
         <v>42041</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="19" t="s">
+      <c r="B2" s="19"/>
+      <c r="C2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="19" t="s">
+      <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="19" t="s">
+      <c r="N2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="O2" s="18" t="s">
         <v>25</v>
       </c>
       <c r="P2" s="1"/>
@@ -891,8 +1063,8 @@
         <v>0</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -939,8 +1111,8 @@
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -1039,9 +1211,9 @@
         <v>11</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="18"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="18"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1090,10 +1262,10 @@
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="18"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="18"/>
+      <c r="G8" s="17"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1190,7 +1362,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="18"/>
+      <c r="D10" s="17"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1239,8 +1411,8 @@
         <v>4</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1287,12 +1459,12 @@
         <v>13</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="18"/>
+      <c r="I12" s="17"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1336,7 +1508,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="18"/>
+      <c r="G13" s="17"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1384,10 +1556,10 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -1476,7 +1648,7 @@
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="18"/>
+      <c r="D16" s="17"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="1"/>
@@ -1524,12 +1696,12 @@
       <c r="A17" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -1571,11 +1743,11 @@
       <c r="A18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="17"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1625,9 +1797,9 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1851,7 +2023,7 @@
       <c r="A24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1929,10 +2101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DA26"/>
+  <dimension ref="A1:DA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CY26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1940,623 +2112,623 @@
     <col min="1" max="1" width="34.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="1:105" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="29" t="s">
         <v>39</v>
       </c>
       <c r="C1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="29" t="s">
         <v>40</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="N1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="P1" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="R1" s="28" t="s">
+      <c r="P1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="28" t="s">
+      <c r="S1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="28" t="s">
+      <c r="T1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="V1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="W1" s="29" t="s">
         <v>40</v>
       </c>
       <c r="X1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="Y1" s="30" t="s">
+      <c r="Y1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="30" t="s">
+      <c r="Z1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="30" t="s">
+      <c r="AA1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="30" t="s">
+      <c r="AB1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AC1" s="30" t="s">
+      <c r="AC1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="AD1" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AE1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="30" t="s">
+      <c r="AF1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" s="30" t="s">
+      <c r="AG1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AH1" s="30" t="s">
+      <c r="AH1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="30" t="s">
+      <c r="AI1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="30" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AK1" s="30" t="s">
+      <c r="AK1" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AL1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AM1" s="30" t="s">
+      <c r="AM1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AN1" s="30" t="s">
+      <c r="AN1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="30" t="s">
+      <c r="AO1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AP1" s="30" t="s">
+      <c r="AP1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AQ1" s="30" t="s">
+      <c r="AQ1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AR1" s="30" t="s">
+      <c r="AR1" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AS1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="30" t="s">
+      <c r="AT1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" s="30" t="s">
+      <c r="AU1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AV1" s="30" t="s">
+      <c r="AV1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AW1" s="30" t="s">
+      <c r="AW1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AX1" s="30" t="s">
+      <c r="AX1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AY1" s="30" t="s">
+      <c r="AY1" s="29" t="s">
         <v>40</v>
       </c>
       <c r="AZ1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="BA1" s="30" t="s">
+      <c r="BA1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="BB1" s="30" t="s">
+      <c r="BB1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="BC1" s="30" t="s">
+      <c r="BC1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="BD1" s="30" t="s">
+      <c r="BD1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="BE1" s="30" t="s">
+      <c r="BE1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BF1" s="30" t="s">
+      <c r="BF1" s="29" t="s">
         <v>40</v>
       </c>
       <c r="BG1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="BH1" s="30" t="s">
+      <c r="BH1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="BI1" s="30" t="s">
+      <c r="BI1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="BJ1" s="30" t="s">
+      <c r="BJ1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="BK1" s="30" t="s">
+      <c r="BK1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="BL1" s="30" t="s">
+      <c r="BL1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="BM1" s="30" t="s">
+      <c r="BM1" s="29" t="s">
         <v>40</v>
       </c>
       <c r="BN1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="BO1" s="30" t="s">
+      <c r="BO1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="BP1" s="30" t="s">
+      <c r="BP1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="BQ1" s="28" t="s">
+      <c r="BQ1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BR1" s="28" t="s">
+      <c r="BR1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="BS1" s="28" t="s">
+      <c r="BS1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="BT1" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="BU1" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="BV1" s="28" t="s">
+      <c r="BT1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="BU1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="BV1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="BW1" s="28" t="s">
+      <c r="BW1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="BX1" s="28" t="s">
+      <c r="BX1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="BY1" s="28" t="s">
+      <c r="BY1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="BZ1" s="28" t="s">
+      <c r="BZ1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="CA1" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="CB1" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="CC1" s="28" t="s">
+      <c r="CA1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="CB1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="CC1" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="CD1" s="28" t="s">
+      <c r="CD1" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="CE1" s="28" t="s">
+      <c r="CE1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="CF1" s="28" t="s">
+      <c r="CF1" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="CG1" s="30" t="s">
+      <c r="CG1" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="CH1" s="30" t="s">
+      <c r="CH1" s="31" t="s">
         <v>40</v>
       </c>
       <c r="CI1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="CJ1" s="30" t="s">
+      <c r="CJ1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="CK1" s="30" t="s">
+      <c r="CK1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CL1" s="30" t="s">
+      <c r="CL1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="CM1" s="30" t="s">
+      <c r="CM1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="CN1" s="30" t="s">
+      <c r="CN1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CO1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="CP1" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="CQ1" s="30" t="s">
+      <c r="CO1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="CP1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="CQ1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="CR1" s="30" t="s">
+      <c r="CR1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CS1" s="30" t="s">
+      <c r="CS1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="CT1" s="30" t="s">
+      <c r="CT1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="CU1" s="30" t="s">
+      <c r="CU1" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="CV1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="CW1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="CX1" s="30" t="s">
+      <c r="CV1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="CW1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="CX1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="CY1" s="30" t="s">
+      <c r="CY1" s="29" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:105" x14ac:dyDescent="0.25">
-      <c r="B2" s="26">
+      <c r="B2" s="25">
         <v>42041</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="25">
         <v>42046</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>42047</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="25">
         <v>42048</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="25">
         <v>42049</v>
       </c>
-      <c r="G2" s="26">
+      <c r="G2" s="25">
         <v>42050</v>
       </c>
-      <c r="H2" s="26">
+      <c r="H2" s="25">
         <v>42051</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <v>42052</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="25">
         <v>42053</v>
       </c>
-      <c r="K2" s="26">
+      <c r="K2" s="25">
         <v>42054</v>
       </c>
-      <c r="L2" s="26">
+      <c r="L2" s="25">
         <v>42055</v>
       </c>
-      <c r="M2" s="26">
+      <c r="M2" s="25">
         <v>42056</v>
       </c>
-      <c r="N2" s="26">
+      <c r="N2" s="25">
         <v>42057</v>
       </c>
-      <c r="O2" s="26">
+      <c r="O2" s="25">
         <v>42058</v>
       </c>
-      <c r="P2" s="26">
+      <c r="P2" s="25">
         <v>42059</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="25">
         <v>42060</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R2" s="25">
         <v>42061</v>
       </c>
-      <c r="S2" s="26">
+      <c r="S2" s="25">
         <v>42062</v>
       </c>
-      <c r="T2" s="26">
+      <c r="T2" s="25">
         <v>42063</v>
       </c>
-      <c r="U2" s="26">
+      <c r="U2" s="25">
         <v>42064</v>
       </c>
-      <c r="V2" s="26">
+      <c r="V2" s="25">
         <v>42065</v>
       </c>
-      <c r="W2" s="26">
+      <c r="W2" s="25">
         <v>42066</v>
       </c>
-      <c r="X2" s="26">
+      <c r="X2" s="25">
         <v>42067</v>
       </c>
-      <c r="Y2" s="26">
+      <c r="Y2" s="25">
         <v>42068</v>
       </c>
-      <c r="Z2" s="26">
+      <c r="Z2" s="25">
         <v>42069</v>
       </c>
-      <c r="AA2" s="26">
+      <c r="AA2" s="25">
         <v>42070</v>
       </c>
-      <c r="AB2" s="26">
+      <c r="AB2" s="25">
         <v>42071</v>
       </c>
-      <c r="AC2" s="26">
+      <c r="AC2" s="25">
         <v>42072</v>
       </c>
-      <c r="AD2" s="26">
+      <c r="AD2" s="25">
         <v>42073</v>
       </c>
-      <c r="AE2" s="26">
+      <c r="AE2" s="25">
         <v>42074</v>
       </c>
-      <c r="AF2" s="26">
+      <c r="AF2" s="25">
         <v>42075</v>
       </c>
-      <c r="AG2" s="26">
+      <c r="AG2" s="25">
         <v>42076</v>
       </c>
-      <c r="AH2" s="26">
+      <c r="AH2" s="25">
         <v>42077</v>
       </c>
-      <c r="AI2" s="26">
+      <c r="AI2" s="25">
         <v>42078</v>
       </c>
-      <c r="AJ2" s="26">
+      <c r="AJ2" s="25">
         <v>42079</v>
       </c>
-      <c r="AK2" s="26">
+      <c r="AK2" s="25">
         <v>42080</v>
       </c>
-      <c r="AL2" s="26">
+      <c r="AL2" s="25">
         <v>42081</v>
       </c>
-      <c r="AM2" s="26">
+      <c r="AM2" s="25">
         <v>42082</v>
       </c>
-      <c r="AN2" s="26">
+      <c r="AN2" s="25">
         <v>42083</v>
       </c>
-      <c r="AO2" s="26">
+      <c r="AO2" s="25">
         <v>42084</v>
       </c>
-      <c r="AP2" s="26">
+      <c r="AP2" s="25">
         <v>42085</v>
       </c>
-      <c r="AQ2" s="26">
+      <c r="AQ2" s="25">
         <v>42086</v>
       </c>
-      <c r="AR2" s="26">
+      <c r="AR2" s="25">
         <v>42087</v>
       </c>
-      <c r="AS2" s="26">
+      <c r="AS2" s="25">
         <v>42088</v>
       </c>
-      <c r="AT2" s="26">
+      <c r="AT2" s="25">
         <v>42089</v>
       </c>
-      <c r="AU2" s="26">
+      <c r="AU2" s="25">
         <v>42090</v>
       </c>
-      <c r="AV2" s="26">
+      <c r="AV2" s="25">
         <v>42091</v>
       </c>
-      <c r="AW2" s="26">
+      <c r="AW2" s="25">
         <v>42092</v>
       </c>
-      <c r="AX2" s="26">
+      <c r="AX2" s="25">
         <v>42093</v>
       </c>
-      <c r="AY2" s="26">
+      <c r="AY2" s="25">
         <v>42094</v>
       </c>
-      <c r="AZ2" s="26">
+      <c r="AZ2" s="25">
         <v>42095</v>
       </c>
-      <c r="BA2" s="26">
+      <c r="BA2" s="25">
         <v>42096</v>
       </c>
-      <c r="BB2" s="26">
+      <c r="BB2" s="25">
         <v>42097</v>
       </c>
-      <c r="BC2" s="26">
+      <c r="BC2" s="25">
         <v>42098</v>
       </c>
-      <c r="BD2" s="26">
+      <c r="BD2" s="25">
         <v>42099</v>
       </c>
-      <c r="BE2" s="26">
+      <c r="BE2" s="25">
         <v>42100</v>
       </c>
-      <c r="BF2" s="26">
+      <c r="BF2" s="25">
         <v>42101</v>
       </c>
-      <c r="BG2" s="26">
+      <c r="BG2" s="25">
         <v>42102</v>
       </c>
-      <c r="BH2" s="26">
+      <c r="BH2" s="25">
         <v>42103</v>
       </c>
-      <c r="BI2" s="26">
+      <c r="BI2" s="25">
         <v>42104</v>
       </c>
-      <c r="BJ2" s="26">
+      <c r="BJ2" s="25">
         <v>42105</v>
       </c>
-      <c r="BK2" s="26">
+      <c r="BK2" s="25">
         <v>42106</v>
       </c>
-      <c r="BL2" s="26">
+      <c r="BL2" s="25">
         <v>42107</v>
       </c>
-      <c r="BM2" s="26">
+      <c r="BM2" s="25">
         <v>42108</v>
       </c>
-      <c r="BN2" s="26">
+      <c r="BN2" s="25">
         <v>42109</v>
       </c>
-      <c r="BO2" s="26">
+      <c r="BO2" s="25">
         <v>42110</v>
       </c>
-      <c r="BP2" s="26">
+      <c r="BP2" s="25">
         <v>42111</v>
       </c>
-      <c r="BQ2" s="26">
+      <c r="BQ2" s="25">
         <v>42112</v>
       </c>
-      <c r="BR2" s="26">
+      <c r="BR2" s="25">
         <v>42113</v>
       </c>
-      <c r="BS2" s="26">
+      <c r="BS2" s="25">
         <v>42114</v>
       </c>
-      <c r="BT2" s="26">
+      <c r="BT2" s="25">
         <v>42115</v>
       </c>
-      <c r="BU2" s="26">
+      <c r="BU2" s="25">
         <v>42116</v>
       </c>
-      <c r="BV2" s="26">
+      <c r="BV2" s="25">
         <v>42117</v>
       </c>
-      <c r="BW2" s="26">
+      <c r="BW2" s="25">
         <v>42118</v>
       </c>
-      <c r="BX2" s="26">
+      <c r="BX2" s="25">
         <v>42119</v>
       </c>
-      <c r="BY2" s="26">
+      <c r="BY2" s="25">
         <v>42120</v>
       </c>
-      <c r="BZ2" s="26">
+      <c r="BZ2" s="25">
         <v>42121</v>
       </c>
-      <c r="CA2" s="26">
+      <c r="CA2" s="25">
         <v>42122</v>
       </c>
-      <c r="CB2" s="26">
+      <c r="CB2" s="25">
         <v>42123</v>
       </c>
-      <c r="CC2" s="26">
+      <c r="CC2" s="25">
         <v>42124</v>
       </c>
-      <c r="CD2" s="26">
+      <c r="CD2" s="25">
         <v>42125</v>
       </c>
-      <c r="CE2" s="26">
+      <c r="CE2" s="25">
         <v>42126</v>
       </c>
-      <c r="CF2" s="26">
+      <c r="CF2" s="25">
         <v>42127</v>
       </c>
-      <c r="CG2" s="26">
+      <c r="CG2" s="25">
         <v>42128</v>
       </c>
-      <c r="CH2" s="26">
+      <c r="CH2" s="25">
         <v>42129</v>
       </c>
-      <c r="CI2" s="26">
+      <c r="CI2" s="25">
         <v>42130</v>
       </c>
-      <c r="CJ2" s="26">
+      <c r="CJ2" s="25">
         <v>42131</v>
       </c>
-      <c r="CK2" s="26">
+      <c r="CK2" s="25">
         <v>42132</v>
       </c>
-      <c r="CL2" s="26">
+      <c r="CL2" s="25">
         <v>42133</v>
       </c>
-      <c r="CM2" s="26">
+      <c r="CM2" s="25">
         <v>42134</v>
       </c>
-      <c r="CN2" s="26">
+      <c r="CN2" s="25">
         <v>42135</v>
       </c>
-      <c r="CO2" s="26">
+      <c r="CO2" s="25">
         <v>42136</v>
       </c>
-      <c r="CP2" s="26">
+      <c r="CP2" s="25">
         <v>42137</v>
       </c>
-      <c r="CQ2" s="26">
+      <c r="CQ2" s="25">
         <v>42138</v>
       </c>
-      <c r="CR2" s="26">
+      <c r="CR2" s="25">
         <v>42139</v>
       </c>
-      <c r="CS2" s="26">
+      <c r="CS2" s="25">
         <v>42140</v>
       </c>
-      <c r="CT2" s="26">
+      <c r="CT2" s="25">
         <v>42141</v>
       </c>
-      <c r="CU2" s="26">
+      <c r="CU2" s="25">
         <v>42142</v>
       </c>
-      <c r="CV2" s="26">
+      <c r="CV2" s="25">
         <v>42143</v>
       </c>
-      <c r="CW2" s="26">
+      <c r="CW2" s="25">
         <v>42144</v>
       </c>
-      <c r="CX2" s="26">
+      <c r="CX2" s="25">
         <v>42145</v>
       </c>
-      <c r="CY2" s="26">
+      <c r="CY2" s="25">
         <v>42146</v>
       </c>
-      <c r="CZ2" s="23"/>
-      <c r="DA2" s="24"/>
+      <c r="CZ2" s="22"/>
+      <c r="DA2" s="23"/>
     </row>
     <row r="3" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -2578,40 +2750,44 @@
         <v>0</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
+      <c r="C4" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
     </row>
     <row r="5" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
+      <c r="C5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
     </row>
     <row r="6" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -2635,7 +2811,9 @@
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="11"/>
-      <c r="D7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2644,14 +2822,20 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="X7" s="29"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -2659,9 +2843,14 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="AL8" s="11"/>
+      <c r="AM8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
@@ -2691,7 +2880,9 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="11"/>
+      <c r="J10" s="34" t="s">
+        <v>45</v>
+      </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -2711,13 +2902,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="11"/>
+      <c r="C11" s="34" t="s">
+        <v>47</v>
+      </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -2738,9 +2931,11 @@
         <v>13</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="11"/>
+      <c r="C12" s="34" t="s">
+        <v>47</v>
+      </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="18"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
@@ -2748,7 +2943,9 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="X12" s="11"/>
+      <c r="X12" s="34" t="s">
+        <v>47</v>
+      </c>
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
       <c r="AA12" s="11"/>
@@ -2762,26 +2959,29 @@
       <c r="AI12" s="11"/>
       <c r="AJ12" s="11"/>
       <c r="AK12" s="11"/>
-      <c r="AS12" s="17"/>
-      <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
-      <c r="AV12" s="17"/>
-      <c r="AW12" s="17"/>
-      <c r="AX12" s="17"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="32"/>
-      <c r="BA12" s="32"/>
-      <c r="BB12" s="32"/>
-      <c r="BC12" s="32"/>
-      <c r="BD12" s="32"/>
-      <c r="BE12" s="32"/>
-      <c r="BF12" s="32"/>
+      <c r="AS12" s="36"/>
+      <c r="AT12" s="36"/>
+      <c r="AU12" s="36"/>
+      <c r="AV12" s="36"/>
+      <c r="AW12" s="36"/>
+      <c r="AX12" s="36"/>
+      <c r="AY12" s="36"/>
+      <c r="AZ12" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA12" s="30"/>
+      <c r="BB12" s="30"/>
+      <c r="BC12" s="30"/>
+      <c r="BD12" s="30"/>
+      <c r="BE12" s="30"/>
+      <c r="BF12" s="30"/>
+      <c r="BG12" s="30"/>
     </row>
     <row r="13" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="25"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2791,13 +2991,24 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="AL13" s="11"/>
+      <c r="AL13" s="34" t="s">
+        <v>47</v>
+      </c>
       <c r="AM13" s="11"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="11"/>
       <c r="AP13" s="11"/>
       <c r="AQ13" s="11"/>
       <c r="AR13" s="11"/>
+      <c r="AS13" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT13" s="38"/>
+      <c r="AU13" s="38"/>
+      <c r="AV13" s="38"/>
+      <c r="AW13" s="38"/>
+      <c r="AX13" s="38"/>
+      <c r="AY13" s="38"/>
     </row>
     <row r="14" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
@@ -2805,55 +3016,59 @@
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="AS14" s="17"/>
-      <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
-      <c r="AV14" s="17"/>
-      <c r="AW14" s="17"/>
-      <c r="AX14" s="17"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="17"/>
-      <c r="BE14" s="17"/>
-      <c r="BF14" s="17"/>
-      <c r="BG14" s="17"/>
-      <c r="BH14" s="17"/>
-      <c r="BI14" s="17"/>
-      <c r="BJ14" s="17"/>
-      <c r="BK14" s="17"/>
-      <c r="BL14" s="17"/>
-      <c r="BM14" s="17"/>
-      <c r="BN14" s="17"/>
-      <c r="BO14" s="32"/>
-      <c r="BP14" s="32"/>
-      <c r="BQ14" s="32"/>
-      <c r="BR14" s="32"/>
-      <c r="BS14" s="32"/>
-      <c r="BT14" s="32"/>
-      <c r="BU14" s="32"/>
-      <c r="BV14" s="32"/>
-      <c r="BW14" s="32"/>
-      <c r="BX14" s="32"/>
-      <c r="BY14" s="32"/>
-      <c r="BZ14" s="32"/>
-      <c r="CA14" s="32"/>
-      <c r="CB14" s="32"/>
-      <c r="CC14" s="32"/>
-      <c r="CD14" s="32"/>
-      <c r="CE14" s="32"/>
-      <c r="CF14" s="32"/>
-      <c r="CG14" s="32"/>
+      <c r="AS14" s="35"/>
+      <c r="AT14" s="35"/>
+      <c r="AU14" s="35"/>
+      <c r="AV14" s="35"/>
+      <c r="AW14" s="35"/>
+      <c r="AX14" s="35"/>
+      <c r="AY14" s="35"/>
+      <c r="AZ14" s="35"/>
+      <c r="BA14" s="35"/>
+      <c r="BB14" s="35"/>
+      <c r="BC14" s="35"/>
+      <c r="BD14" s="35"/>
+      <c r="BE14" s="35"/>
+      <c r="BF14" s="35"/>
+      <c r="BG14" s="35"/>
+      <c r="BH14" s="35"/>
+      <c r="BI14" s="35"/>
+      <c r="BJ14" s="35"/>
+      <c r="BK14" s="35"/>
+      <c r="BL14" s="35"/>
+      <c r="BM14" s="35"/>
+      <c r="BN14" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="BO14" s="30"/>
+      <c r="BP14" s="30"/>
+      <c r="BQ14" s="30"/>
+      <c r="BR14" s="30"/>
+      <c r="BS14" s="30"/>
+      <c r="BT14" s="30"/>
+      <c r="BU14" s="30"/>
+      <c r="BV14" s="30"/>
+      <c r="BW14" s="30"/>
+      <c r="BX14" s="30"/>
+      <c r="BY14" s="30"/>
+      <c r="BZ14" s="30"/>
+      <c r="CA14" s="30"/>
+      <c r="CB14" s="30"/>
+      <c r="CC14" s="30"/>
+      <c r="CD14" s="30"/>
+      <c r="CE14" s="30"/>
+      <c r="CF14" s="30"/>
+      <c r="CG14" s="30"/>
+      <c r="CH14" s="40"/>
+      <c r="CI14" s="40"/>
     </row>
     <row r="15" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -2882,7 +3097,9 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="11"/>
+      <c r="J16" s="34" t="s">
+        <v>48</v>
+      </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -2896,20 +3113,23 @@
       <c r="U16" s="11"/>
       <c r="V16" s="11"/>
       <c r="W16" s="11"/>
-      <c r="AS16" s="32"/>
-      <c r="AT16" s="32"/>
-      <c r="AU16" s="32"/>
-      <c r="AV16" s="32"/>
-      <c r="AW16" s="32"/>
-      <c r="AX16" s="32"/>
-      <c r="AY16" s="32"/>
-      <c r="AZ16" s="32"/>
-      <c r="BA16" s="32"/>
-      <c r="BB16" s="32"/>
-      <c r="BC16" s="32"/>
-      <c r="BD16" s="32"/>
-      <c r="BE16" s="32"/>
-      <c r="BF16" s="32"/>
+      <c r="AS16" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT16" s="30"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="30"/>
+      <c r="AX16" s="30"/>
+      <c r="AY16" s="30"/>
+      <c r="AZ16" s="30"/>
+      <c r="BA16" s="30"/>
+      <c r="BB16" s="30"/>
+      <c r="BC16" s="30"/>
+      <c r="BD16" s="30"/>
+      <c r="BE16" s="30"/>
+      <c r="BF16" s="30"/>
+      <c r="BG16" s="30"/>
     </row>
     <row r="17" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
@@ -2917,15 +3137,17 @@
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="X17" s="11"/>
+      <c r="X17" s="34" t="s">
+        <v>48</v>
+      </c>
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
       <c r="AA17" s="11"/>
@@ -2939,7 +3161,9 @@
       <c r="AI17" s="11"/>
       <c r="AJ17" s="11"/>
       <c r="AK17" s="11"/>
-      <c r="AS17" s="16"/>
+      <c r="AS17" s="38" t="s">
+        <v>45</v>
+      </c>
       <c r="AT17" s="16"/>
       <c r="AU17" s="16"/>
       <c r="AV17" s="16"/>
@@ -2953,7 +3177,7 @@
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -2961,7 +3185,9 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="X18" s="11"/>
+      <c r="X18" s="34" t="s">
+        <v>45</v>
+      </c>
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
       <c r="AA18" s="11"/>
@@ -2975,30 +3201,51 @@
       <c r="AI18" s="11"/>
       <c r="AJ18" s="11"/>
       <c r="AK18" s="11"/>
-      <c r="AS18" s="17"/>
-      <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
-      <c r="AV18" s="17"/>
-      <c r="AW18" s="17"/>
-      <c r="AX18" s="17"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="32"/>
-      <c r="BA18" s="32"/>
-      <c r="BB18" s="32"/>
-      <c r="BC18" s="32"/>
-      <c r="BD18" s="32"/>
-      <c r="BE18" s="32"/>
-      <c r="BF18" s="32"/>
-      <c r="BG18" s="32"/>
-      <c r="BH18" s="32"/>
-      <c r="BI18" s="32"/>
-      <c r="BJ18" s="32"/>
-      <c r="BK18" s="32"/>
-      <c r="BL18" s="32"/>
-      <c r="BM18" s="32"/>
-      <c r="BN18" s="32"/>
-      <c r="BO18" s="32"/>
-      <c r="BP18" s="32"/>
+      <c r="AS18" s="35"/>
+      <c r="AT18" s="35"/>
+      <c r="AU18" s="35"/>
+      <c r="AV18" s="35"/>
+      <c r="AW18" s="35"/>
+      <c r="AX18" s="35"/>
+      <c r="AY18" s="35"/>
+      <c r="AZ18" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="BA18" s="30"/>
+      <c r="BB18" s="30"/>
+      <c r="BC18" s="30"/>
+      <c r="BD18" s="30"/>
+      <c r="BE18" s="30"/>
+      <c r="BF18" s="30"/>
+      <c r="BG18" s="30"/>
+      <c r="BH18" s="30"/>
+      <c r="BI18" s="30"/>
+      <c r="BJ18" s="30"/>
+      <c r="BK18" s="30"/>
+      <c r="BL18" s="30"/>
+      <c r="BM18" s="30"/>
+      <c r="BN18" s="30"/>
+      <c r="BO18" s="30"/>
+      <c r="BP18" s="30"/>
+      <c r="BQ18" s="39"/>
+      <c r="BR18" s="39"/>
+      <c r="BS18" s="39"/>
+      <c r="BT18" s="39"/>
+      <c r="BU18" s="39"/>
+      <c r="BV18" s="39"/>
+      <c r="BW18" s="39"/>
+      <c r="BX18" s="39"/>
+      <c r="BY18" s="39"/>
+      <c r="BZ18" s="39"/>
+      <c r="CA18" s="39"/>
+      <c r="CB18" s="39"/>
+      <c r="CC18" s="39"/>
+      <c r="CD18" s="39"/>
+      <c r="CE18" s="39"/>
+      <c r="CF18" s="39"/>
+      <c r="CG18" s="39"/>
+      <c r="CH18" s="39"/>
+      <c r="CI18" s="40"/>
     </row>
     <row r="19" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
@@ -3009,32 +3256,34 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="BN19" s="16"/>
-      <c r="BO19" s="16"/>
-      <c r="BP19" s="16"/>
-      <c r="BQ19" s="16"/>
-      <c r="BR19" s="16"/>
-      <c r="BS19" s="16"/>
-      <c r="BT19" s="16"/>
-      <c r="BU19" s="16"/>
-      <c r="BV19" s="16"/>
-      <c r="BW19" s="16"/>
-      <c r="BX19" s="16"/>
-      <c r="BY19" s="16"/>
-      <c r="BZ19" s="16"/>
-      <c r="CA19" s="16"/>
-      <c r="CB19" s="16"/>
-      <c r="CC19" s="16"/>
-      <c r="CD19" s="16"/>
-      <c r="CE19" s="16"/>
-      <c r="CF19" s="16"/>
-      <c r="CG19" s="17"/>
-      <c r="CH19" s="17"/>
+      <c r="BO19" s="41"/>
+      <c r="BP19" s="41"/>
+      <c r="BQ19" s="41"/>
+      <c r="BR19" s="41"/>
+      <c r="BS19" s="41"/>
+      <c r="BT19" s="41"/>
+      <c r="BU19" s="41"/>
+      <c r="BV19" s="41"/>
+      <c r="BW19" s="41"/>
+      <c r="BX19" s="41"/>
+      <c r="BY19" s="41"/>
+      <c r="BZ19" s="41"/>
+      <c r="CA19" s="41"/>
+      <c r="CB19" s="41"/>
+      <c r="CC19" s="41"/>
+      <c r="CD19" s="41"/>
+      <c r="CE19" s="41"/>
+      <c r="CF19" s="41"/>
+      <c r="CG19" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="CH19" s="30"/>
+      <c r="CI19" s="30"/>
     </row>
     <row r="20" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
@@ -3056,7 +3305,9 @@
         <v>17</v>
       </c>
       <c r="B21" s="10"/>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -3072,7 +3323,9 @@
         <v>18</v>
       </c>
       <c r="B22" s="10"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -3082,6 +3335,10 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="CV22" s="43" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="23" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
@@ -3096,21 +3353,38 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="1"/>
+      <c r="K23" s="42" t="s">
+        <v>58</v>
+      </c>
       <c r="L23" s="1"/>
       <c r="AE23" s="11"/>
+      <c r="AF23" s="43" t="s">
+        <v>59</v>
+      </c>
       <c r="AL23" s="11"/>
+      <c r="AM23" s="43" t="s">
+        <v>61</v>
+      </c>
       <c r="AS23" s="11"/>
-      <c r="BN23" s="11"/>
-      <c r="CI23" s="33"/>
-      <c r="CU23" s="11"/>
-      <c r="CY23" s="11"/>
+      <c r="AT23" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="BN23" s="16"/>
+      <c r="BO23" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="CI23" s="45"/>
+      <c r="CJ23" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="CU23" s="16"/>
+      <c r="CY23" s="16"/>
     </row>
     <row r="24" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="25"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -3120,7 +3394,9 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="AL24" s="11"/>
+      <c r="AL24" s="34" t="s">
+        <v>48</v>
+      </c>
       <c r="AM24" s="11"/>
       <c r="AN24" s="11"/>
       <c r="AO24" s="11"/>
@@ -3130,7 +3406,7 @@
     </row>
     <row r="25" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3142,17 +3418,13 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="AL25" s="11"/>
-      <c r="AM25" s="11"/>
-      <c r="AN25" s="11"/>
-      <c r="AO25" s="11"/>
-      <c r="AP25" s="11"/>
-      <c r="AQ25" s="11"/>
-      <c r="AR25" s="11"/>
+      <c r="CI25" s="37" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:103" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3164,7 +3436,18 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="CH26" s="16"/>
+      <c r="AL26" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="11"/>
+      <c r="CH26" s="38" t="s">
+        <v>50</v>
+      </c>
       <c r="CI26" s="16"/>
       <c r="CJ26" s="16"/>
       <c r="CK26" s="16"/>
@@ -3178,8 +3461,1605 @@
       <c r="CS26" s="16"/>
       <c r="CT26" s="16"/>
     </row>
+    <row r="27" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="I30" s="11"/>
+      <c r="K30" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="46"/>
+      <c r="O30" s="46"/>
+      <c r="P30" s="46"/>
+      <c r="Q30" s="46"/>
+      <c r="R30" s="46"/>
+      <c r="S30" s="46"/>
+      <c r="T30" s="46"/>
+      <c r="U30" s="46"/>
+      <c r="V30" s="46"/>
+      <c r="W30" s="46"/>
+    </row>
+    <row r="31" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="I31" s="16"/>
+      <c r="K31" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+    </row>
+    <row r="32" spans="1:103" x14ac:dyDescent="0.25">
+      <c r="I32" s="35"/>
+      <c r="K32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I33" s="44"/>
+      <c r="K33" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="K30:W30"/>
+    <mergeCell ref="K31:W31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AR33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="2" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="44" width="3.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A1" s="26"/>
+      <c r="B1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="O1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="S1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR1" s="29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="B2" s="25">
+        <v>42041</v>
+      </c>
+      <c r="C2" s="25">
+        <v>42046</v>
+      </c>
+      <c r="D2" s="25">
+        <v>42047</v>
+      </c>
+      <c r="E2" s="25">
+        <v>42048</v>
+      </c>
+      <c r="F2" s="25">
+        <v>42049</v>
+      </c>
+      <c r="G2" s="25">
+        <v>42050</v>
+      </c>
+      <c r="H2" s="25">
+        <v>42051</v>
+      </c>
+      <c r="I2" s="25">
+        <v>42052</v>
+      </c>
+      <c r="J2" s="25">
+        <v>42053</v>
+      </c>
+      <c r="K2" s="25">
+        <v>42054</v>
+      </c>
+      <c r="L2" s="25">
+        <v>42055</v>
+      </c>
+      <c r="M2" s="25">
+        <v>42056</v>
+      </c>
+      <c r="N2" s="25">
+        <v>42057</v>
+      </c>
+      <c r="O2" s="25">
+        <v>42058</v>
+      </c>
+      <c r="P2" s="25">
+        <v>42059</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>42060</v>
+      </c>
+      <c r="R2" s="25">
+        <v>42061</v>
+      </c>
+      <c r="S2" s="25">
+        <v>42062</v>
+      </c>
+      <c r="T2" s="25">
+        <v>42063</v>
+      </c>
+      <c r="U2" s="25">
+        <v>42064</v>
+      </c>
+      <c r="V2" s="25">
+        <v>42065</v>
+      </c>
+      <c r="W2" s="25">
+        <v>42066</v>
+      </c>
+      <c r="X2" s="25">
+        <v>42067</v>
+      </c>
+      <c r="Y2" s="25">
+        <v>42068</v>
+      </c>
+      <c r="Z2" s="25">
+        <v>42069</v>
+      </c>
+      <c r="AA2" s="25">
+        <v>42070</v>
+      </c>
+      <c r="AB2" s="25">
+        <v>42071</v>
+      </c>
+      <c r="AC2" s="25">
+        <v>42072</v>
+      </c>
+      <c r="AD2" s="25">
+        <v>42073</v>
+      </c>
+      <c r="AE2" s="25">
+        <v>42074</v>
+      </c>
+      <c r="AF2" s="25">
+        <v>42075</v>
+      </c>
+      <c r="AG2" s="25">
+        <v>42076</v>
+      </c>
+      <c r="AH2" s="25">
+        <v>42077</v>
+      </c>
+      <c r="AI2" s="25">
+        <v>42078</v>
+      </c>
+      <c r="AJ2" s="25">
+        <v>42079</v>
+      </c>
+      <c r="AK2" s="25">
+        <v>42080</v>
+      </c>
+      <c r="AL2" s="25">
+        <v>42081</v>
+      </c>
+      <c r="AM2" s="25">
+        <v>42082</v>
+      </c>
+      <c r="AN2" s="25">
+        <v>42083</v>
+      </c>
+      <c r="AO2" s="25">
+        <v>42084</v>
+      </c>
+      <c r="AP2" s="25">
+        <v>42085</v>
+      </c>
+      <c r="AQ2" s="25">
+        <v>42086</v>
+      </c>
+      <c r="AR2" s="25">
+        <v>42087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="X7" s="28"/>
+      <c r="Y7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="11"/>
+      <c r="T11" s="11"/>
+      <c r="U11" s="11"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+    </row>
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="X12" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y12" s="11"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="11"/>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11"/>
+      <c r="AF12" s="11"/>
+      <c r="AG12" s="11"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="11"/>
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="11"/>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="AL13" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="AM13" s="11"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="11"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="11"/>
+      <c r="AR13" s="11"/>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="X17" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y17" s="11"/>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11"/>
+      <c r="AF17" s="11"/>
+      <c r="AG17" s="11"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="11"/>
+      <c r="AJ17" s="11"/>
+      <c r="AK17" s="11"/>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="X18" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="11"/>
+      <c r="AG18" s="11"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="11"/>
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="11"/>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="AE23" s="11"/>
+      <c r="AF23" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="24"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="AL24" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM24" s="11"/>
+      <c r="AN24" s="11"/>
+      <c r="AO24" s="11"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="11"/>
+      <c r="AR24" s="11"/>
+    </row>
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="AL26" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM26" s="11"/>
+      <c r="AN26" s="11"/>
+      <c r="AO26" s="11"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="11"/>
+      <c r="AR26" s="11"/>
+    </row>
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="I30" s="11"/>
+      <c r="K30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="I31" s="16"/>
+      <c r="K31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="I32" s="35"/>
+      <c r="K32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I33" s="44"/>
+      <c r="K33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BH26"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X33" sqref="X33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+    <col min="2" max="60" width="3.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A1" s="26"/>
+      <c r="B1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="P1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="U1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AH1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AI1" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AK1" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="AL1" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM1" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP1" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="AS1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AT1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="AV1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA1" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC1" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="BG1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH1" s="29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B2" s="25">
+        <v>42088</v>
+      </c>
+      <c r="C2" s="25">
+        <v>42089</v>
+      </c>
+      <c r="D2" s="25">
+        <v>42090</v>
+      </c>
+      <c r="E2" s="25">
+        <v>42091</v>
+      </c>
+      <c r="F2" s="25">
+        <v>42092</v>
+      </c>
+      <c r="G2" s="25">
+        <v>42093</v>
+      </c>
+      <c r="H2" s="25">
+        <v>42094</v>
+      </c>
+      <c r="I2" s="25">
+        <v>42095</v>
+      </c>
+      <c r="J2" s="25">
+        <v>42096</v>
+      </c>
+      <c r="K2" s="25">
+        <v>42097</v>
+      </c>
+      <c r="L2" s="25">
+        <v>42098</v>
+      </c>
+      <c r="M2" s="25">
+        <v>42099</v>
+      </c>
+      <c r="N2" s="25">
+        <v>42100</v>
+      </c>
+      <c r="O2" s="25">
+        <v>42101</v>
+      </c>
+      <c r="P2" s="25">
+        <v>42102</v>
+      </c>
+      <c r="Q2" s="25">
+        <v>42103</v>
+      </c>
+      <c r="R2" s="25">
+        <v>42104</v>
+      </c>
+      <c r="S2" s="25">
+        <v>42105</v>
+      </c>
+      <c r="T2" s="25">
+        <v>42106</v>
+      </c>
+      <c r="U2" s="25">
+        <v>42107</v>
+      </c>
+      <c r="V2" s="25">
+        <v>42108</v>
+      </c>
+      <c r="W2" s="25">
+        <v>42109</v>
+      </c>
+      <c r="X2" s="25">
+        <v>42110</v>
+      </c>
+      <c r="Y2" s="25">
+        <v>42111</v>
+      </c>
+      <c r="Z2" s="25">
+        <v>42112</v>
+      </c>
+      <c r="AA2" s="25">
+        <v>42113</v>
+      </c>
+      <c r="AB2" s="25">
+        <v>42114</v>
+      </c>
+      <c r="AC2" s="25">
+        <v>42115</v>
+      </c>
+      <c r="AD2" s="25">
+        <v>42116</v>
+      </c>
+      <c r="AE2" s="25">
+        <v>42117</v>
+      </c>
+      <c r="AF2" s="25">
+        <v>42118</v>
+      </c>
+      <c r="AG2" s="25">
+        <v>42119</v>
+      </c>
+      <c r="AH2" s="25">
+        <v>42120</v>
+      </c>
+      <c r="AI2" s="25">
+        <v>42121</v>
+      </c>
+      <c r="AJ2" s="25">
+        <v>42122</v>
+      </c>
+      <c r="AK2" s="25">
+        <v>42123</v>
+      </c>
+      <c r="AL2" s="25">
+        <v>42124</v>
+      </c>
+      <c r="AM2" s="25">
+        <v>42125</v>
+      </c>
+      <c r="AN2" s="25">
+        <v>42126</v>
+      </c>
+      <c r="AO2" s="25">
+        <v>42127</v>
+      </c>
+      <c r="AP2" s="25">
+        <v>42128</v>
+      </c>
+      <c r="AQ2" s="25">
+        <v>42129</v>
+      </c>
+      <c r="AR2" s="25">
+        <v>42130</v>
+      </c>
+      <c r="AS2" s="25">
+        <v>42131</v>
+      </c>
+      <c r="AT2" s="25">
+        <v>42132</v>
+      </c>
+      <c r="AU2" s="25">
+        <v>42133</v>
+      </c>
+      <c r="AV2" s="25">
+        <v>42134</v>
+      </c>
+      <c r="AW2" s="25">
+        <v>42135</v>
+      </c>
+      <c r="AX2" s="25">
+        <v>42136</v>
+      </c>
+      <c r="AY2" s="25">
+        <v>42137</v>
+      </c>
+      <c r="AZ2" s="25">
+        <v>42138</v>
+      </c>
+      <c r="BA2" s="25">
+        <v>42139</v>
+      </c>
+      <c r="BB2" s="25">
+        <v>42140</v>
+      </c>
+      <c r="BC2" s="25">
+        <v>42141</v>
+      </c>
+      <c r="BD2" s="25">
+        <v>42142</v>
+      </c>
+      <c r="BE2" s="25">
+        <v>42143</v>
+      </c>
+      <c r="BF2" s="25">
+        <v>42144</v>
+      </c>
+      <c r="BG2" s="25">
+        <v>42145</v>
+      </c>
+      <c r="BH2" s="25">
+        <v>42146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="30"/>
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="30"/>
+      <c r="AJ14" s="30"/>
+      <c r="AK14" s="30"/>
+      <c r="AL14" s="30"/>
+      <c r="AM14" s="30"/>
+      <c r="AN14" s="30"/>
+      <c r="AO14" s="30"/>
+      <c r="AP14" s="30"/>
+      <c r="AQ14" s="40"/>
+      <c r="AR14" s="40"/>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+    </row>
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="30"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="39"/>
+      <c r="AA18" s="39"/>
+      <c r="AB18" s="39"/>
+      <c r="AC18" s="39"/>
+      <c r="AD18" s="39"/>
+      <c r="AE18" s="39"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AH18" s="39"/>
+      <c r="AI18" s="39"/>
+      <c r="AJ18" s="39"/>
+      <c r="AK18" s="39"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="39"/>
+      <c r="AN18" s="39"/>
+      <c r="AO18" s="39"/>
+      <c r="AP18" s="39"/>
+      <c r="AQ18" s="39"/>
+      <c r="AR18" s="40"/>
+    </row>
+    <row r="19" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+      <c r="AA19" s="41"/>
+      <c r="AB19" s="41"/>
+      <c r="AC19" s="41"/>
+      <c r="AD19" s="41"/>
+      <c r="AE19" s="41"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="41"/>
+      <c r="AH19" s="41"/>
+      <c r="AI19" s="41"/>
+      <c r="AJ19" s="41"/>
+      <c r="AK19" s="41"/>
+      <c r="AL19" s="41"/>
+      <c r="AM19" s="41"/>
+      <c r="AN19" s="41"/>
+      <c r="AO19" s="41"/>
+      <c r="AP19" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ19" s="30"/>
+      <c r="AR19" s="30"/>
+    </row>
+    <row r="20" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE22" s="43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="W23" s="16"/>
+      <c r="X23" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="AR23" s="45"/>
+      <c r="AS23" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD23" s="16"/>
+      <c r="BH23" s="16"/>
+    </row>
+    <row r="24" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR25" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ26" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR26" s="16"/>
+      <c r="AS26" s="16"/>
+      <c r="AT26" s="16"/>
+      <c r="AU26" s="16"/>
+      <c r="AV26" s="16"/>
+      <c r="AW26" s="16"/>
+      <c r="AX26" s="16"/>
+      <c r="AY26" s="16"/>
+      <c r="AZ26" s="16"/>
+      <c r="BA26" s="16"/>
+      <c r="BB26" s="16"/>
+      <c r="BC26" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>